--- a/Data/TeamRecords.xlsx
+++ b/Data/TeamRecords.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advait/Desktop/NTU/nba-dsai/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCB4349-84D6-3343-9AB1-2F50832615CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F1850F-B59F-F74D-BCFB-DF4A9E5D6EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15120" yWindow="980" windowWidth="19440" windowHeight="17440" xr2:uid="{454EE840-5055-C043-B706-51DF86B5EFA1}"/>
+    <workbookView xWindow="9360" yWindow="560" windowWidth="19440" windowHeight="17440" xr2:uid="{454EE840-5055-C043-B706-51DF86B5EFA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,16 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>Oklahoma City Thunder - o2250.3063012-303-910-2612-241-21-9W 1</t>
-  </si>
-  <si>
-    <t>Houston Rockets - o1755.2363511-315-79-278-280-12-8L 1</t>
-  </si>
-  <si>
-    <t>TEAM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>W</t>
   </si>
@@ -87,12 +78,27 @@
   <si>
     <t>POR</t>
   </si>
+  <si>
+    <t>WIN%</t>
+  </si>
+  <si>
+    <t>Conference</t>
+  </si>
+  <si>
+    <t>Eastern</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -122,6 +128,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -144,11 +158,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1498,31 +1513,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B60C73-8B35-4143-A99B-7001B2A1FF9C}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C13"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="59.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>52</v>
@@ -1530,10 +1552,17 @@
       <c r="C2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <f>(B2/(B2+C2))*100</f>
+        <v>72.222222222222214</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>51</v>
@@ -1541,10 +1570,17 @@
       <c r="C3">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <f t="shared" ref="D3:D13" si="0">(B3/(B3+C3))*100</f>
+        <v>70.833333333333343</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>49</v>
@@ -1552,10 +1588,17 @@
       <c r="C4">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>68.055555555555557</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>48</v>
@@ -1563,10 +1606,17 @@
       <c r="C5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>47</v>
@@ -1574,10 +1624,17 @@
       <c r="C6">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>65.277777777777786</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>47</v>
@@ -1585,10 +1642,17 @@
       <c r="C7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>65.277777777777786</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>46</v>
@@ -1596,10 +1660,17 @@
       <c r="C8">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>63.888888888888886</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>42</v>
@@ -1607,10 +1678,17 @@
       <c r="C9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>42</v>
@@ -1618,10 +1696,17 @@
       <c r="C10">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>41</v>
@@ -1629,10 +1714,17 @@
       <c r="C11">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>56.944444444444443</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>41</v>
@@ -1640,10 +1732,17 @@
       <c r="C12">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>56.944444444444443</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>40</v>
@@ -1651,6 +1750,13 @@
       <c r="C13">
         <v>32</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>55.555555555555557</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
@@ -1683,26 +1789,16 @@
       <c r="B42" s="1"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="1">
-        <v>15</v>
-      </c>
+      <c r="B45" s="1"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B47" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B44" r:id="rId1" display="https://www.nba.com/team/1610612760/thunder" xr:uid="{2C2F577F-F15F-414C-BCC8-4D58949E1E83}"/>
-    <hyperlink ref="B47" r:id="rId2" display="https://www.nba.com/team/1610612745/rockets" xr:uid="{261EA935-4587-9A48-B63A-7B6A05C376E2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/TeamRecords.xlsx
+++ b/Data/TeamRecords.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/advait/Desktop/NTU/nba-dsai/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryan/Documents/GitHub/nba-dsai/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F1850F-B59F-F74D-BCFB-DF4A9E5D6EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA63F83-375E-7443-88A6-E0D5A415037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="560" windowWidth="19440" windowHeight="17440" xr2:uid="{454EE840-5055-C043-B706-51DF86B5EFA1}"/>
+    <workbookView xWindow="9360" yWindow="760" windowWidth="19440" windowHeight="17440" xr2:uid="{454EE840-5055-C043-B706-51DF86B5EFA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>W</t>
   </si>
@@ -92,6 +92,60 @@
   </si>
   <si>
     <t>Team</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>CHA</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>GSW</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>HOU</t>
   </si>
 </sst>
 </file>
@@ -578,13 +632,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
@@ -1516,7 +1570,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1571,7 +1625,7 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D13" si="0">(B3/(B3+C3))*100</f>
+        <f t="shared" ref="D3:D31" si="0">(B3/(B3+C3))*100</f>
         <v>70.833333333333343</v>
       </c>
       <c r="E3" t="s">
@@ -1758,13 +1812,331 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>42</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>54.166666666666664</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>38</v>
+      </c>
+      <c r="C16">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>52.777777777777779</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>36</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>38</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>47.222222222222221</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>47.222222222222221</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>45.833333333333329</v>
+      </c>
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>45.833333333333329</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>41</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>43.055555555555557</v>
+      </c>
+      <c r="E22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>43.055555555555557</v>
+      </c>
+      <c r="E23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>41</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>43.055555555555557</v>
+      </c>
+      <c r="E24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>45</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>49</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>31.944444444444443</v>
+      </c>
+      <c r="E26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>30.555555555555557</v>
+      </c>
+      <c r="E27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>30.555555555555557</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>29.166666666666668</v>
+      </c>
+      <c r="E29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>52</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>23.611111111111111</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">

--- a/Data/TeamRecords.xlsx
+++ b/Data/TeamRecords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryan/Documents/GitHub/nba-dsai/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA63F83-375E-7443-88A6-E0D5A415037D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC81E9F9-4F84-544D-B78E-4E3D734FDF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9360" yWindow="760" windowWidth="19440" windowHeight="17440" xr2:uid="{454EE840-5055-C043-B706-51DF86B5EFA1}"/>
   </bookViews>
@@ -1570,7 +1570,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
